--- a/tmptmptmp.xlsx
+++ b/tmptmptmp.xlsx
@@ -712,7 +712,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="41.28515625" customWidth="1" style="28" min="1" max="1"/>
     <col width="36" customWidth="1" style="28" min="2" max="2"/>
